--- a/P2-E-commerce/src/test/resources/TestData.xlsx
+++ b/P2-E-commerce/src/test/resources/TestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>Username</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>user_1768155801969</t>
+  </si>
+  <si>
+    <t>user_1768216212073</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
@@ -673,6 +676,14 @@
         <v>27</v>
       </c>
       <c r="B23" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>3</v>
       </c>
     </row>
